--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999993117</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999993117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.304212838014547E-16</v>
+        <v>4.531068451036246E-07</v>
       </c>
       <c r="E3">
-        <v>1.304212838014547E-16</v>
+        <v>4.531068451036246E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,13 +469,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003692595017958092</v>
+        <v>0.6173657116625142</v>
       </c>
       <c r="E4">
-        <v>0.0003692595017958092</v>
+        <v>0.6173657116625142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.873135658891722E-23</v>
+        <v>9.273154463488359E-16</v>
       </c>
       <c r="E5">
-        <v>7.873135658891722E-23</v>
+        <v>9.273154463488359E-16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.884108520460789E-55</v>
+        <v>5.714966185353726E-50</v>
       </c>
       <c r="E6">
-        <v>1.884108520460789E-55</v>
+        <v>5.714966185353726E-50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.006327152252197</v>
+        <v>4.827533721923828</v>
       </c>
       <c r="G7">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
